--- a/data_processing/data/member_test_xl1.xlsx
+++ b/data_processing/data/member_test_xl1.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,58 +443,56 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
+          <t>hong1</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>hong2</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>hong3</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
           <t>hong4</t>
-        </is>
-      </c>
-      <c r="B1" t="n">
-        <v>25</v>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>seoul4</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>hong4</t>
-        </is>
+      <c r="A2" t="n">
+        <v>10</v>
       </c>
       <c r="B2" t="n">
+        <v>15</v>
+      </c>
+      <c r="C2" t="n">
+        <v>20</v>
+      </c>
+      <c r="D2" t="n">
         <v>25</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>seoul4</t>
-        </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>hong4</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>25</v>
+          <t>seoul1</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>seoul2</t>
+        </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>seoul4</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>hong4</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>25</v>
-      </c>
-      <c r="C4" t="inlineStr">
+          <t>seoul3</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
         <is>
           <t>seoul4</t>
         </is>
